--- a/growth_20180327_2.xlsx
+++ b/growth_20180327_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\buildit\3. Book examples\Ch10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94AD1D3-8EEE-405F-9535-FEC609DA03D9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D908BC-393D-4223-966A-CD234CB79B00}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="-15" windowWidth="11445" windowHeight="9705" tabRatio="466" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="-15" windowWidth="11445" windowHeight="9705" tabRatio="466" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Serdang" sheetId="14" r:id="rId1"/>
@@ -5557,7 +5557,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5722,6 +5803,87 @@
                   <c:v>153.29525038722485</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>153.29525038722485</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>153.29525038722485</c:v>
                 </c:pt>
               </c:numCache>
@@ -5911,7 +6073,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6076,6 +6319,87 @@
                   <c:v>4.0262089379978923</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0262089379978923</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>4.0262089379978923</c:v>
                 </c:pt>
               </c:numCache>
@@ -6265,7 +6589,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6430,6 +6835,87 @@
                   <c:v>77.058886205949605</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77.058886205949605</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>77.058886205949605</c:v>
                 </c:pt>
               </c:numCache>
@@ -6619,7 +7105,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6784,6 +7351,87 @@
                   <c:v>13.642840667163533</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.642840667163533</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>13.642840667163533</c:v>
                 </c:pt>
               </c:numCache>
@@ -6972,7 +7620,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7137,6 +7866,87 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7477,7 +8287,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7642,6 +8533,87 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -7845,7 +8817,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7860,157 +8913,238 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.27400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.28600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.29800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.31000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.32200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.33400000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25</c:v>
+                  <c:v>0.34600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>0.37000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>0.38200000000000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25</c:v>
+                  <c:v>0.39400000000000013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>0.40600000000000014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25</c:v>
+                  <c:v>0.41800000000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25</c:v>
+                  <c:v>0.43000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25</c:v>
+                  <c:v>0.44200000000000017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25</c:v>
+                  <c:v>0.45400000000000018</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25</c:v>
+                  <c:v>0.46600000000000019</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25</c:v>
+                  <c:v>0.4780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25</c:v>
+                  <c:v>0.49000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25</c:v>
+                  <c:v>0.50200000000000022</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25</c:v>
+                  <c:v>0.51400000000000023</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25</c:v>
+                  <c:v>0.52600000000000025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25</c:v>
+                  <c:v>0.53800000000000026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25</c:v>
+                  <c:v>0.55000000000000027</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25</c:v>
+                  <c:v>0.56200000000000028</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25</c:v>
+                  <c:v>0.57400000000000029</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.25</c:v>
+                  <c:v>0.59800000000000031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8370,7 +9504,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8535,6 +9750,87 @@
                   <c:v>4.1353080039708177</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.1353080039708177</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>4.1353080039708177</c:v>
                 </c:pt>
               </c:numCache>
@@ -8604,7 +9900,7 @@
         <c:axId val="106575744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
+          <c:max val="5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8868,7 +10164,88 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8886,16 +10263,16 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.26350000000000001</c:v>
@@ -8904,7 +10281,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.26350000000000001</c:v>
@@ -8913,7 +10290,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.26350000000000001</c:v>
@@ -8922,7 +10299,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.26350000000000001</c:v>
@@ -8946,7 +10323,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.26350000000000001</c:v>
@@ -8964,76 +10341,157 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.26350000000000001</c:v>
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26350000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.26350000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10824,7 +12282,7 @@
       </c>
       <c r="H2" s="3">
         <f>1370*(1+0.033*COS(2*PI()*(doy-10)/365))</f>
-        <v>1404.4095235340535</v>
+        <v>1385.4424144740788</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10846,7 +12304,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-(E24)^2)</f>
-        <v>0.64910416551217776</v>
+        <v>0.83245468388013266</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -10861,7 +12319,7 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">3600*Ic*24/PI()*H3</f>
-        <v>25071021.640715998</v>
+        <v>31718522.588875353</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11038,7 +12496,7 @@
       </c>
       <c r="E15" s="3">
         <f ca="1">24-E16</f>
-        <v>6.523501632747795</v>
+        <v>6.0044516144462357</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>56</v>
@@ -11054,7 +12512,7 @@
       </c>
       <c r="E16" s="3">
         <f ca="1">12+(12/PI())*ACOS(-E22/E23)</f>
-        <v>17.476498367252205</v>
+        <v>17.995548385553764</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>57</v>
@@ -11070,7 +12528,7 @@
       </c>
       <c r="E17" s="3">
         <f ca="1">E16-E15</f>
-        <v>10.95299673450441</v>
+        <v>11.991096771107529</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11100,14 +12558,14 @@
       </c>
       <c r="E20" s="3">
         <f>-0.4093*COS(2*PI()*(doy+10)/365)</f>
-        <v>-0.20363218914970904</v>
+        <v>-1.7614382246527874E-3</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-E24^2)</f>
-        <v>0.64910416551217776</v>
+        <v>0.83245468388013266</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11134,7 +12592,7 @@
       </c>
       <c r="E22" s="3">
         <f ca="1">SIN(decl)*SIN(lat)</f>
-        <v>-0.11158756804764686</v>
+        <v>-9.719460254621863E-4</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>64</v>
@@ -11150,7 +12608,7 @@
       </c>
       <c r="E23" s="3">
         <f ca="1">COS(decl)*COS(lat)</f>
-        <v>0.8167508268330026</v>
+        <v>0.83398084675933826</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>63</v>
@@ -11166,7 +12624,7 @@
       </c>
       <c r="E24" s="3">
         <f ca="1">E22/E23</f>
-        <v>-0.13662375890127218</v>
+        <v>-1.1654296729222855E-3</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>62</v>
@@ -11182,7 +12640,7 @@
       </c>
       <c r="E25" s="3">
         <f ca="1">ACOS(E22+E23*COS(ha))</f>
-        <v>2.7375650117380852</v>
+        <v>2.5426154904815648</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11191,7 +12649,7 @@
       </c>
       <c r="E26" s="3">
         <f ca="1">(PI()/2)-suninc</f>
-        <v>-1.1667686849431886</v>
+        <v>-0.97181916368666821</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>65</v>
@@ -11207,14 +12665,14 @@
       </c>
       <c r="E27" s="3">
         <f ca="1">(SIN(lat)*SIN(sunhgt)-SIN(decl))/(COS(lat)*COS(sunhgt))</f>
-        <v>-0.93069301370609847</v>
+        <v>-0.96548826653641462</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="3">
         <f ca="1">0.847-1.61*SIN(sunhgt)+1.04*SIN(sunhgt)^2</f>
-        <v>3.2066419387243124</v>
+        <v>2.886136573866656</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -11223,14 +12681,14 @@
       </c>
       <c r="E28" s="3">
         <f ca="1">ACOS(MAX(-1,MIN(1,E27)))</f>
-        <v>2.7670991375236649</v>
+        <v>2.8781079638937079</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="3">
         <f ca="1">(1.47-H27)/1.66</f>
-        <v>-1.0461698426050074</v>
+        <v>-0.85309432160641929</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11240,7 +12698,7 @@
       </c>
       <c r="E29" s="3">
         <f ca="1">PI()+IF(th&lt;12,-E28,E28)</f>
-        <v>0.37449351606612824</v>
+        <v>0.26348468969608518</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>76</v>
@@ -11700,7 +13158,7 @@
       </c>
       <c r="G9" s="15">
         <f ca="1">-2*COS(suninc)/L*LN(G7+G8*EXP(-L/(2*G8*COS(suninc))))</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>149</v>
@@ -11999,7 +13457,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -12717,7 +14175,7 @@
       </c>
       <c r="E2" s="23">
         <f>Growth!E26</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>274</v>
@@ -12935,7 +14393,7 @@
       </c>
       <c r="E12" s="15">
         <f>SUM(H16:J16)/droot</f>
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>242</v>
@@ -13007,11 +14465,11 @@
       </c>
       <c r="I15" s="15">
         <f>MAX(0,I5-droot)</f>
-        <v>0.23000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J15" s="15">
         <f>MAX(0,J5-droot)</f>
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13027,11 +14485,11 @@
       </c>
       <c r="I16" s="15">
         <f t="shared" ref="I16:J16" si="1">MAX(0,I9*(I4-I15))</f>
-        <v>6.0604999999999999E-2</v>
+        <v>0.12121000000000001</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.1620000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13056,11 +14514,11 @@
       </c>
       <c r="H18" s="15">
         <f>MIN(1,H5/droot)</f>
-        <v>0.08</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I18" s="15">
         <f>MIN(1,I5/droot)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J18" s="15">
         <f>MIN(1,J5/droot)</f>
@@ -13073,11 +14531,11 @@
       </c>
       <c r="H19" s="15">
         <f t="shared" ref="H19:J19" si="2">1.8*H18-0.8*H18^2</f>
-        <v>0.13888</v>
+        <v>5.9111111111111107E-2</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
@@ -13090,15 +14548,15 @@
       </c>
       <c r="H20" s="15">
         <f>H19*AETc</f>
-        <v>2.5932027549478018E-2</v>
+        <v>1.1037377317206144E-2</v>
       </c>
       <c r="I20" s="15">
         <f>(I19-H19)*AETc</f>
-        <v>0.16079052104987407</v>
+        <v>0.16224114778299259</v>
       </c>
       <c r="J20" s="15">
         <f>(J19-I19)*AETc</f>
-        <v>0</v>
+        <v>1.3444023499153341E-2</v>
       </c>
     </row>
     <row r="21" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -13252,8 +14710,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13512,7 +14970,7 @@
         <v>356</v>
       </c>
       <c r="E10" s="15">
-        <v>0.12529999999999986</v>
+        <v>0.18969999999999976</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>15</v>
@@ -13660,7 +15118,7 @@
         <v>279</v>
       </c>
       <c r="B19" s="15">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>121</v>
@@ -13777,7 +15235,7 @@
         <v>355</v>
       </c>
       <c r="E25" s="15">
-        <v>0.86200000000000054</v>
+        <v>1.1980000000000008</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -13786,7 +15244,7 @@
       </c>
       <c r="E26" s="15">
         <f>MIN(dm,E25)</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>324</v>
@@ -14408,7 +15866,7 @@
       </c>
       <c r="E2" s="1">
         <f>B2+INT(_step)</f>
-        <v>43051</v>
+        <v>43081</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>232</v>
@@ -14427,11 +15885,11 @@
       </c>
       <c r="K2">
         <f ca="1">tsr</f>
-        <v>6.523501632747795</v>
+        <v>6.0044516144462357</v>
       </c>
       <c r="L2">
         <f ca="1">tss</f>
-        <v>17.476498367252205</v>
+        <v>17.995548385553764</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -14440,7 +15898,7 @@
       </c>
       <c r="E3" s="1">
         <f>date-DATE(YEAR(date),9,22)</f>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>232</v>
@@ -14539,14 +15997,14 @@
         <v>88</v>
       </c>
       <c r="B7">
-        <v>51.01</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>259</v>
       </c>
       <c r="H7">
         <f>Growth!E10</f>
-        <v>0.12529999999999986</v>
+        <v>0.18969999999999976</v>
       </c>
       <c r="I7">
         <f>Growth!E12</f>
@@ -14595,7 +16053,7 @@
       </c>
       <c r="H10">
         <f>Growth!E25</f>
-        <v>0.86200000000000054</v>
+        <v>1.1980000000000008</v>
       </c>
       <c r="I10">
         <f>Growth!E29</f>
@@ -14665,7 +16123,7 @@
       </c>
       <c r="H24">
         <f>Growth!E10</f>
-        <v>0.12529999999999986</v>
+        <v>0.18969999999999976</v>
       </c>
       <c r="I24">
         <f>Growth!B10</f>
@@ -14691,7 +16149,7 @@
       </c>
       <c r="H26">
         <f>Growth!E25</f>
-        <v>0.86200000000000054</v>
+        <v>1.1980000000000008</v>
       </c>
       <c r="I26">
         <f>Growth!B12</f>
@@ -14720,10 +16178,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14783,7 +16241,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>date-Control!B2</f>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <f>dvs</f>
@@ -14815,7 +16273,7 @@
       </c>
       <c r="I3">
         <f>droot</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
         <f>L</f>
@@ -14823,7 +16281,7 @@
       </c>
       <c r="K3">
         <f>Water!E12</f>
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -14933,7 +16391,7 @@
         <v>2.5</v>
       </c>
       <c r="I9" s="3">
-        <v>0.25</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="J9" s="3">
         <v>5.7570449680998975E-2</v>
@@ -14971,13 +16429,13 @@
         <v>2.5</v>
       </c>
       <c r="I10" s="3">
-        <v>0.25</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="J10" s="3">
         <v>7.8340960331012011E-2</v>
       </c>
       <c r="K10">
-        <v>0.26350000000000001</v>
+        <v>0.26349999999999996</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -15009,13 +16467,13 @@
         <v>2.5</v>
       </c>
       <c r="I11" s="3">
-        <v>0.25</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="J11" s="3">
         <v>0.10345637391501859</v>
       </c>
       <c r="K11">
-        <v>0.26350000000000001</v>
+        <v>0.26349999999999996</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -15047,7 +16505,7 @@
         <v>2.5</v>
       </c>
       <c r="I12" s="3">
-        <v>0.25</v>
+        <v>0.29800000000000004</v>
       </c>
       <c r="J12" s="3">
         <v>0.13811055579371173</v>
@@ -15085,13 +16543,13 @@
         <v>2.5</v>
       </c>
       <c r="I13" s="3">
-        <v>0.25</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="J13" s="3">
         <v>0.18074234771618758</v>
       </c>
       <c r="K13">
-        <v>0.26350000000000001</v>
+        <v>0.26349999999999996</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -15123,7 +16581,7 @@
         <v>2.5</v>
       </c>
       <c r="I14" s="3">
-        <v>0.25</v>
+        <v>0.32200000000000006</v>
       </c>
       <c r="J14" s="3">
         <v>0.22738243734507194</v>
@@ -15161,7 +16619,7 @@
         <v>2.5</v>
       </c>
       <c r="I15" s="3">
-        <v>0.25</v>
+        <v>0.33400000000000007</v>
       </c>
       <c r="J15" s="3">
         <v>0.28629683675788065</v>
@@ -15199,13 +16657,13 @@
         <v>2.5</v>
       </c>
       <c r="I16" s="3">
-        <v>0.25</v>
+        <v>0.34600000000000009</v>
       </c>
       <c r="J16" s="3">
         <v>0.37192085027416483</v>
       </c>
       <c r="K16">
-        <v>0.26350000000000001</v>
+        <v>0.26349999999999996</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -15237,7 +16695,7 @@
         <v>2.5</v>
       </c>
       <c r="I17" s="3">
-        <v>0.25</v>
+        <v>0.3580000000000001</v>
       </c>
       <c r="J17" s="3">
         <v>0.47427409379395929</v>
@@ -15278,7 +16736,7 @@
         <v>2.5</v>
       </c>
       <c r="I18" s="57">
-        <v>0.25</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="J18" s="57">
         <v>0.60110377626920075</v>
@@ -15322,13 +16780,13 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="3">
-        <v>0.25</v>
+        <v>0.38200000000000012</v>
       </c>
       <c r="J19" s="3">
         <v>0.66899490913535908</v>
       </c>
       <c r="K19">
-        <v>0.26350000000000001</v>
+        <v>0.26349999999999996</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -15363,7 +16821,7 @@
         <v>2.5</v>
       </c>
       <c r="I20" s="3">
-        <v>0.25</v>
+        <v>0.39400000000000013</v>
       </c>
       <c r="J20" s="3">
         <v>0.81112376366227135</v>
@@ -15404,7 +16862,7 @@
         <v>2.5</v>
       </c>
       <c r="I21" s="3">
-        <v>0.25</v>
+        <v>0.40600000000000014</v>
       </c>
       <c r="J21" s="3">
         <v>1.0013536961377982</v>
@@ -15439,13 +16897,13 @@
         <v>2.5</v>
       </c>
       <c r="I22" s="3">
-        <v>0.25</v>
+        <v>0.41800000000000015</v>
       </c>
       <c r="J22" s="3">
         <v>1.107623974921303</v>
       </c>
       <c r="K22">
-        <v>0.26350000000000001</v>
+        <v>0.26349999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -15474,7 +16932,7 @@
         <v>2.5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.25</v>
+        <v>0.43000000000000016</v>
       </c>
       <c r="J23" s="3">
         <v>1.2229462920504068</v>
@@ -15509,7 +16967,7 @@
         <v>2.5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.25</v>
+        <v>0.44200000000000017</v>
       </c>
       <c r="J24" s="3">
         <v>1.4275476922683545</v>
@@ -15544,7 +17002,7 @@
         <v>2.5</v>
       </c>
       <c r="I25" s="3">
-        <v>0.25</v>
+        <v>0.45400000000000018</v>
       </c>
       <c r="J25" s="3">
         <v>1.6595038676969267</v>
@@ -15579,7 +17037,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="3">
-        <v>0.25</v>
+        <v>0.46600000000000019</v>
       </c>
       <c r="J26" s="3">
         <v>1.9007082524443915</v>
@@ -15614,7 +17072,7 @@
         <v>2.5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.25</v>
+        <v>0.4780000000000002</v>
       </c>
       <c r="J27" s="3">
         <v>2.1486927395186739</v>
@@ -15649,7 +17107,7 @@
         <v>2.5</v>
       </c>
       <c r="I28" s="3">
-        <v>0.25</v>
+        <v>0.49000000000000021</v>
       </c>
       <c r="J28" s="3">
         <v>2.4075695218149877</v>
@@ -15684,7 +17142,7 @@
         <v>2.5</v>
       </c>
       <c r="I29" s="3">
-        <v>0.25</v>
+        <v>0.50200000000000022</v>
       </c>
       <c r="J29" s="3">
         <v>2.6641642242018477</v>
@@ -15719,13 +17177,13 @@
         <v>2.5</v>
       </c>
       <c r="I30" s="3">
-        <v>0.25</v>
+        <v>0.51400000000000023</v>
       </c>
       <c r="J30" s="3">
         <v>2.872001993751184</v>
       </c>
       <c r="K30">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -15754,7 +17212,7 @@
         <v>2.5</v>
       </c>
       <c r="I31" s="3">
-        <v>0.25</v>
+        <v>0.52600000000000025</v>
       </c>
       <c r="J31" s="3">
         <v>3.0290764835307247</v>
@@ -15789,7 +17247,7 @@
         <v>2.5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.25</v>
+        <v>0.53800000000000026</v>
       </c>
       <c r="J32" s="3">
         <v>3.2030174005020386</v>
@@ -15824,7 +17282,7 @@
         <v>2.5</v>
       </c>
       <c r="I33">
-        <v>0.25</v>
+        <v>0.55000000000000027</v>
       </c>
       <c r="J33">
         <v>3.3643459138222611</v>
@@ -15859,7 +17317,7 @@
         <v>2.5</v>
       </c>
       <c r="I34">
-        <v>0.25</v>
+        <v>0.56200000000000028</v>
       </c>
       <c r="J34">
         <v>3.6016688282823592</v>
@@ -15894,7 +17352,7 @@
         <v>2.5</v>
       </c>
       <c r="I35">
-        <v>0.25</v>
+        <v>0.57400000000000029</v>
       </c>
       <c r="J35">
         <v>3.7885277359743355</v>
@@ -15929,13 +17387,13 @@
         <v>2.5</v>
       </c>
       <c r="I36">
-        <v>0.25</v>
+        <v>0.5860000000000003</v>
       </c>
       <c r="J36">
         <v>3.9918069448361804</v>
       </c>
       <c r="K36">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -15964,7 +17422,7 @@
         <v>2.5</v>
       </c>
       <c r="I37">
-        <v>0.25</v>
+        <v>0.59800000000000031</v>
       </c>
       <c r="J37">
         <v>4.1353080039708177</v>
@@ -15999,13 +17457,13 @@
         <v>2.5</v>
       </c>
       <c r="I38">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J38">
         <v>4.1353080039708177</v>
       </c>
       <c r="K38">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -16034,13 +17492,13 @@
         <v>2.5</v>
       </c>
       <c r="I39">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J39">
         <v>4.1353080039708177</v>
       </c>
       <c r="K39">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -16069,13 +17527,13 @@
         <v>2.5</v>
       </c>
       <c r="I40">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J40">
         <v>4.1353080039708177</v>
       </c>
       <c r="K40">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -16104,13 +17562,13 @@
         <v>2.5</v>
       </c>
       <c r="I41">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J41">
         <v>4.1353080039708177</v>
       </c>
       <c r="K41">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -16139,13 +17597,13 @@
         <v>2.5</v>
       </c>
       <c r="I42">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J42">
         <v>4.1353080039708177</v>
       </c>
       <c r="K42">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -16174,13 +17632,13 @@
         <v>2.5</v>
       </c>
       <c r="I43">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J43">
         <v>4.1353080039708177</v>
       </c>
       <c r="K43">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -16209,13 +17667,13 @@
         <v>2.5</v>
       </c>
       <c r="I44">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J44">
         <v>4.1353080039708177</v>
       </c>
       <c r="K44">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -16244,13 +17702,13 @@
         <v>2.5</v>
       </c>
       <c r="I45">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J45">
         <v>4.1353080039708177</v>
       </c>
       <c r="K45">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -16279,13 +17737,13 @@
         <v>2.5</v>
       </c>
       <c r="I46">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J46">
         <v>4.1353080039708177</v>
       </c>
       <c r="K46">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -16314,13 +17772,13 @@
         <v>2.5</v>
       </c>
       <c r="I47">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J47">
         <v>4.1353080039708177</v>
       </c>
       <c r="K47">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -16349,13 +17807,13 @@
         <v>2.5</v>
       </c>
       <c r="I48">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J48">
         <v>4.1353080039708177</v>
       </c>
       <c r="K48">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -16384,13 +17842,13 @@
         <v>2.5</v>
       </c>
       <c r="I49">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J49">
         <v>4.1353080039708177</v>
       </c>
       <c r="K49">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -16419,13 +17877,13 @@
         <v>2.5</v>
       </c>
       <c r="I50">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J50">
         <v>4.1353080039708177</v>
       </c>
       <c r="K50">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -16454,13 +17912,13 @@
         <v>2.5</v>
       </c>
       <c r="I51">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J51">
         <v>4.1353080039708177</v>
       </c>
       <c r="K51">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -16489,13 +17947,13 @@
         <v>2.5</v>
       </c>
       <c r="I52">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J52">
         <v>4.1353080039708177</v>
       </c>
       <c r="K52">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -16524,13 +17982,13 @@
         <v>2.5</v>
       </c>
       <c r="I53">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J53">
         <v>4.1353080039708177</v>
       </c>
       <c r="K53">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -16559,13 +18017,13 @@
         <v>2.5</v>
       </c>
       <c r="I54">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J54">
         <v>4.1353080039708177</v>
       </c>
       <c r="K54">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -16594,13 +18052,13 @@
         <v>2.5</v>
       </c>
       <c r="I55">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J55">
         <v>4.1353080039708177</v>
       </c>
       <c r="K55">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -16629,13 +18087,13 @@
         <v>2.5</v>
       </c>
       <c r="I56">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J56">
         <v>4.1353080039708177</v>
       </c>
       <c r="K56">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -16664,13 +18122,13 @@
         <v>2.5</v>
       </c>
       <c r="I57">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J57">
         <v>4.1353080039708177</v>
       </c>
       <c r="K57">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -16699,18 +18157,18 @@
         <v>2.5</v>
       </c>
       <c r="I58">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J58">
         <v>4.1353080039708177</v>
       </c>
       <c r="K58">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>0.66825999999999963</v>
@@ -16734,13 +18192,958 @@
         <v>2.5</v>
       </c>
       <c r="I59">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J59">
         <v>4.1353080039708177</v>
       </c>
       <c r="K59">
-        <v>0.26350000000000001</v>
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C60">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D60">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E60">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F60">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>2.5</v>
+      </c>
+      <c r="I60">
+        <v>0.6</v>
+      </c>
+      <c r="J60">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K60">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C61">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D61">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E61">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F61">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>2.5</v>
+      </c>
+      <c r="I61">
+        <v>0.6</v>
+      </c>
+      <c r="J61">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K61">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C62">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D62">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E62">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F62">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2.5</v>
+      </c>
+      <c r="I62">
+        <v>0.6</v>
+      </c>
+      <c r="J62">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K62">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C63">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D63">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E63">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F63">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>2.5</v>
+      </c>
+      <c r="I63">
+        <v>0.6</v>
+      </c>
+      <c r="J63">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K63">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C64">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D64">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E64">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F64">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2.5</v>
+      </c>
+      <c r="I64">
+        <v>0.6</v>
+      </c>
+      <c r="J64">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K64">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C65">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D65">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E65">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F65">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>2.5</v>
+      </c>
+      <c r="I65">
+        <v>0.6</v>
+      </c>
+      <c r="J65">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K65">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C66">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D66">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E66">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F66">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>2.5</v>
+      </c>
+      <c r="I66">
+        <v>0.6</v>
+      </c>
+      <c r="J66">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K66">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C67">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D67">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E67">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F67">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>2.5</v>
+      </c>
+      <c r="I67">
+        <v>0.6</v>
+      </c>
+      <c r="J67">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K67">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C68">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D68">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E68">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F68">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>2.5</v>
+      </c>
+      <c r="I68">
+        <v>0.6</v>
+      </c>
+      <c r="J68">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K68">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C69">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D69">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E69">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F69">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>2.5</v>
+      </c>
+      <c r="I69">
+        <v>0.6</v>
+      </c>
+      <c r="J69">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K69">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C70">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D70">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E70">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F70">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>2.5</v>
+      </c>
+      <c r="I70">
+        <v>0.6</v>
+      </c>
+      <c r="J70">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K70">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C71">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D71">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E71">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F71">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>2.5</v>
+      </c>
+      <c r="I71">
+        <v>0.6</v>
+      </c>
+      <c r="J71">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K71">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C72">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D72">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E72">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F72">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>2.5</v>
+      </c>
+      <c r="I72">
+        <v>0.6</v>
+      </c>
+      <c r="J72">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K72">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C73">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D73">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E73">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F73">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>2.5</v>
+      </c>
+      <c r="I73">
+        <v>0.6</v>
+      </c>
+      <c r="J73">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K73">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="B74">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C74">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D74">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E74">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F74">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>2.5</v>
+      </c>
+      <c r="I74">
+        <v>0.6</v>
+      </c>
+      <c r="J74">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K74">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>69</v>
+      </c>
+      <c r="B75">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C75">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D75">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E75">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F75">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>2.5</v>
+      </c>
+      <c r="I75">
+        <v>0.6</v>
+      </c>
+      <c r="J75">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K75">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C76">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D76">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E76">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F76">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>2.5</v>
+      </c>
+      <c r="I76">
+        <v>0.6</v>
+      </c>
+      <c r="J76">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K76">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>71</v>
+      </c>
+      <c r="B77">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C77">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D77">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E77">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F77">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>2.5</v>
+      </c>
+      <c r="I77">
+        <v>0.6</v>
+      </c>
+      <c r="J77">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K77">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="B78">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C78">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D78">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E78">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F78">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>2.5</v>
+      </c>
+      <c r="I78">
+        <v>0.6</v>
+      </c>
+      <c r="J78">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K78">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C79">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D79">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E79">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F79">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>2.5</v>
+      </c>
+      <c r="I79">
+        <v>0.6</v>
+      </c>
+      <c r="J79">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K79">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>74</v>
+      </c>
+      <c r="B80">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C80">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D80">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E80">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F80">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>2.5</v>
+      </c>
+      <c r="I80">
+        <v>0.6</v>
+      </c>
+      <c r="J80">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K80">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C81">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D81">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E81">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F81">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>2.5</v>
+      </c>
+      <c r="I81">
+        <v>0.6</v>
+      </c>
+      <c r="J81">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K81">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>76</v>
+      </c>
+      <c r="B82">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C82">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D82">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E82">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F82">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>2.5</v>
+      </c>
+      <c r="I82">
+        <v>0.6</v>
+      </c>
+      <c r="J82">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K82">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="B83">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C83">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D83">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E83">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F83">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>2.5</v>
+      </c>
+      <c r="I83">
+        <v>0.6</v>
+      </c>
+      <c r="J83">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K83">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="B84">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C84">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D84">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E84">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F84">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>2.5</v>
+      </c>
+      <c r="I84">
+        <v>0.6</v>
+      </c>
+      <c r="J84">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K84">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>79</v>
+      </c>
+      <c r="B85">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C85">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D85">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E85">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F85">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>2.5</v>
+      </c>
+      <c r="I85">
+        <v>0.6</v>
+      </c>
+      <c r="J85">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K85">
+        <v>0.26350000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>78</v>
+      </c>
+      <c r="B86">
+        <v>0.66825999999999963</v>
+      </c>
+      <c r="C86">
+        <v>153.29525038722485</v>
+      </c>
+      <c r="D86">
+        <v>4.0262089379978923</v>
+      </c>
+      <c r="E86">
+        <v>77.058886205949605</v>
+      </c>
+      <c r="F86">
+        <v>13.642840667163533</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>2.5</v>
+      </c>
+      <c r="I86">
+        <v>0.6</v>
+      </c>
+      <c r="J86">
+        <v>4.1353080039708177</v>
+      </c>
+      <c r="K86">
+        <v>0.26350000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/growth_20180327_2.xlsx
+++ b/growth_20180327_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D908BC-393D-4223-966A-CD234CB79B00}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE612DA4-244E-403A-BF24-2E2E26C87E09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="-15" windowWidth="11445" windowHeight="9705" tabRatio="466" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="-15" windowWidth="11445" windowHeight="9705" tabRatio="466" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Serdang" sheetId="14" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <definedName name="zr">ET!$B$2</definedName>
     <definedName name="zs0">ET!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -5536,7 +5536,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -5557,13 +5557,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -5584,61 +5584,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5830,60 +5776,6 @@
                   <c:v>153.29525038722485</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>153.29525038722485</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>153.29525038722485</c:v>
                 </c:pt>
               </c:numCache>
@@ -6052,7 +5944,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -6073,13 +5965,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -6100,61 +5992,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6346,60 +6184,6 @@
                   <c:v>4.0262089379978923</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.0262089379978923</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>4.0262089379978923</c:v>
                 </c:pt>
               </c:numCache>
@@ -6568,7 +6352,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -6589,13 +6373,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -6616,61 +6400,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6862,60 +6592,6 @@
                   <c:v>77.058886205949605</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.058886205949605</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>77.058886205949605</c:v>
                 </c:pt>
               </c:numCache>
@@ -7084,7 +6760,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -7105,13 +6781,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -7132,61 +6808,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7378,60 +7000,6 @@
                   <c:v>13.642840667163533</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>13.642840667163533</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>13.642840667163533</c:v>
                 </c:pt>
               </c:numCache>
@@ -7599,7 +7167,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -7620,13 +7188,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -7647,61 +7215,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7893,60 +7407,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8266,7 +7726,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -8287,13 +7747,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -8314,61 +7774,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8560,60 +7966,6 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8796,7 +8148,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -8817,13 +8169,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -8844,61 +8196,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8913,238 +8211,184 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26200000000000001</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27400000000000002</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28600000000000003</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29800000000000004</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31000000000000005</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32200000000000006</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33400000000000007</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34600000000000009</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3580000000000001</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37000000000000011</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38200000000000012</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39400000000000013</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40600000000000014</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41800000000000015</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43000000000000016</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44200000000000017</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45400000000000018</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46600000000000019</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4780000000000002</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.49000000000000021</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50200000000000022</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.51400000000000023</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.52600000000000025</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53800000000000026</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55000000000000027</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.56200000000000028</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.57400000000000029</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5860000000000003</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.59800000000000031</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.6</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9483,7 +8727,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -9504,13 +8748,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -9531,61 +8775,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9777,60 +8967,6 @@
                   <c:v>4.1353080039708177</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.1353080039708177</c:v>
-                </c:pt>
-                <c:pt idx="78">
                   <c:v>4.1353080039708177</c:v>
                 </c:pt>
               </c:numCache>
@@ -10143,7 +9279,7 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>48</c:v>
@@ -10164,13 +9300,13 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>57</c:v>
@@ -10191,61 +9327,7 @@
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10263,16 +9345,16 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26349999999999996</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26349999999999996</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26349999999999996</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.26350000000000001</c:v>
@@ -10281,7 +9363,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26349999999999996</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.26350000000000001</c:v>
@@ -10290,7 +9372,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26349999999999996</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.26350000000000001</c:v>
@@ -10299,7 +9381,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26349999999999996</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.26350000000000001</c:v>
@@ -10323,7 +9405,7 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.26350000000000001</c:v>
@@ -10341,157 +9423,103 @@
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.26350000000000007</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.26350000000000007</c:v>
+                  <c:v>0.26350000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12282,7 +11310,7 @@
       </c>
       <c r="H2" s="3">
         <f>1370*(1+0.033*COS(2*PI()*(doy-10)/365))</f>
-        <v>1385.4424144740788</v>
+        <v>1398.8778613709494</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12304,7 +11332,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-(E24)^2)</f>
-        <v>0.83245468388013266</v>
+        <v>0.70864550838604079</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12319,7 +11347,7 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">3600*Ic*24/PI()*H3</f>
-        <v>31718522.588875353</v>
+        <v>27262941.121972267</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12496,7 +11524,7 @@
       </c>
       <c r="E15" s="3">
         <f ca="1">24-E16</f>
-        <v>6.0044516144462357</v>
+        <v>6.3561590371728798</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>56</v>
@@ -12512,7 +11540,7 @@
       </c>
       <c r="E16" s="3">
         <f ca="1">12+(12/PI())*ACOS(-E22/E23)</f>
-        <v>17.995548385553764</v>
+        <v>17.64384096282712</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>57</v>
@@ -12528,7 +11556,7 @@
       </c>
       <c r="E17" s="3">
         <f ca="1">E16-E15</f>
-        <v>11.991096771107529</v>
+        <v>11.28768192565424</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12558,14 +11586,14 @@
       </c>
       <c r="E20" s="3">
         <f>-0.4093*COS(2*PI()*(doy+10)/365)</f>
-        <v>-1.7614382246527874E-3</v>
+        <v>-0.1398049158204033</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-E24^2)</f>
-        <v>0.83245468388013266</v>
+        <v>0.70864550838604079</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -12592,7 +11620,7 @@
       </c>
       <c r="E22" s="3">
         <f ca="1">SIN(decl)*SIN(lat)</f>
-        <v>-9.719460254621863E-4</v>
+        <v>-7.6892101628232581E-2</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>64</v>
@@ -12608,7 +11636,7 @@
       </c>
       <c r="E23" s="3">
         <f ca="1">COS(decl)*COS(lat)</f>
-        <v>0.83398084675933826</v>
+        <v>0.8258451436134181</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>63</v>
@@ -12624,7 +11652,7 @@
       </c>
       <c r="E24" s="3">
         <f ca="1">E22/E23</f>
-        <v>-1.1654296729222855E-3</v>
+        <v>-9.3107166910006228E-2</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>62</v>
@@ -12640,7 +11668,7 @@
       </c>
       <c r="E25" s="3">
         <f ca="1">ACOS(E22+E23*COS(ha))</f>
-        <v>2.5426154904815648</v>
+        <v>2.6765119223817466</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12649,7 +11677,7 @@
       </c>
       <c r="E26" s="3">
         <f ca="1">(PI()/2)-suninc</f>
-        <v>-0.97181916368666821</v>
+        <v>-1.1057155955868501</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>65</v>
@@ -12665,14 +11693,14 @@
       </c>
       <c r="E27" s="3">
         <f ca="1">(SIN(lat)*SIN(sunhgt)-SIN(decl))/(COS(lat)*COS(sunhgt))</f>
-        <v>-0.96548826653641462</v>
+        <v>-0.94598495314115305</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="3">
         <f ca="1">0.847-1.61*SIN(sunhgt)+1.04*SIN(sunhgt)^2</f>
-        <v>2.886136573866656</v>
+        <v>3.1168007935384048</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -12681,14 +11709,14 @@
       </c>
       <c r="E28" s="3">
         <f ca="1">ACOS(MAX(-1,MIN(1,E27)))</f>
-        <v>2.8781079638937079</v>
+        <v>2.811415592048828</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="3">
         <f ca="1">(1.47-H27)/1.66</f>
-        <v>-0.85309432160641929</v>
+        <v>-0.99204867080626802</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12698,7 +11726,7 @@
       </c>
       <c r="E29" s="3">
         <f ca="1">PI()+IF(th&lt;12,-E28,E28)</f>
-        <v>0.26348468969608518</v>
+        <v>0.33017706154096516</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>76</v>
@@ -13457,8 +12485,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14175,7 +13203,7 @@
       </c>
       <c r="E2" s="23">
         <f>Growth!E26</f>
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>274</v>
@@ -14393,7 +13421,7 @@
       </c>
       <c r="E12" s="15">
         <f>SUM(H16:J16)/droot</f>
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>242</v>
@@ -14465,11 +13493,11 @@
       </c>
       <c r="I15" s="15">
         <f>MAX(0,I5-droot)</f>
-        <v>0</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="J15" s="15">
         <f>MAX(0,J5-droot)</f>
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14485,11 +13513,11 @@
       </c>
       <c r="I16" s="15">
         <f t="shared" ref="I16:J16" si="1">MAX(0,I9*(I4-I15))</f>
-        <v>0.12121000000000001</v>
+        <v>6.0604999999999999E-2</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="1"/>
-        <v>3.1620000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -14514,11 +13542,11 @@
       </c>
       <c r="H18" s="15">
         <f>MIN(1,H5/droot)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I18" s="15">
         <f>MIN(1,I5/droot)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J18" s="15">
         <f>MIN(1,J5/droot)</f>
@@ -14531,11 +13559,11 @@
       </c>
       <c r="H19" s="15">
         <f t="shared" ref="H19:J19" si="2">1.8*H18-0.8*H18^2</f>
-        <v>5.9111111111111107E-2</v>
+        <v>0.13888</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="2"/>
-        <v>0.92800000000000005</v>
+        <v>1</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="2"/>
@@ -14548,15 +13576,15 @@
       </c>
       <c r="H20" s="15">
         <f>H19*AETc</f>
-        <v>1.1037377317206144E-2</v>
+        <v>2.5932027549478018E-2</v>
       </c>
       <c r="I20" s="15">
         <f>(I19-H19)*AETc</f>
-        <v>0.16224114778299259</v>
+        <v>0.16079052104987407</v>
       </c>
       <c r="J20" s="15">
         <f>(J19-I19)*AETc</f>
-        <v>1.3444023499153341E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -14970,7 +13998,7 @@
         <v>356</v>
       </c>
       <c r="E10" s="15">
-        <v>0.18969999999999976</v>
+        <v>0.14599999999999982</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>15</v>
@@ -15118,7 +14146,7 @@
         <v>279</v>
       </c>
       <c r="B19" s="15">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>121</v>
@@ -15235,7 +14263,7 @@
         <v>355</v>
       </c>
       <c r="E25" s="15">
-        <v>1.1980000000000008</v>
+        <v>0.97000000000000064</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -15244,7 +14272,7 @@
       </c>
       <c r="E26" s="15">
         <f>MIN(dm,E25)</f>
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>324</v>
@@ -15866,7 +14894,7 @@
       </c>
       <c r="E2" s="1">
         <f>B2+INT(_step)</f>
-        <v>43081</v>
+        <v>43061</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>232</v>
@@ -15885,11 +14913,11 @@
       </c>
       <c r="K2">
         <f ca="1">tsr</f>
-        <v>6.0044516144462357</v>
+        <v>6.3561590371728798</v>
       </c>
       <c r="L2">
         <f ca="1">tss</f>
-        <v>17.995548385553764</v>
+        <v>17.64384096282712</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -15898,7 +14926,7 @@
       </c>
       <c r="E3" s="1">
         <f>date-DATE(YEAR(date),9,22)</f>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>232</v>
@@ -15997,14 +15025,14 @@
         <v>88</v>
       </c>
       <c r="B7">
-        <v>81.010000000000005</v>
+        <v>61.01</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>259</v>
       </c>
       <c r="H7">
         <f>Growth!E10</f>
-        <v>0.18969999999999976</v>
+        <v>0.14599999999999982</v>
       </c>
       <c r="I7">
         <f>Growth!E12</f>
@@ -16053,7 +15081,7 @@
       </c>
       <c r="H10">
         <f>Growth!E25</f>
-        <v>1.1980000000000008</v>
+        <v>0.97000000000000064</v>
       </c>
       <c r="I10">
         <f>Growth!E29</f>
@@ -16123,7 +15151,7 @@
       </c>
       <c r="H24">
         <f>Growth!E10</f>
-        <v>0.18969999999999976</v>
+        <v>0.14599999999999982</v>
       </c>
       <c r="I24">
         <f>Growth!B10</f>
@@ -16149,7 +15177,7 @@
       </c>
       <c r="H26">
         <f>Growth!E25</f>
-        <v>1.1980000000000008</v>
+        <v>0.97000000000000064</v>
       </c>
       <c r="I26">
         <f>Growth!B12</f>
@@ -16178,10 +15206,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -16241,7 +15269,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>date-Control!B2</f>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <f>dvs</f>
@@ -16273,7 +15301,7 @@
       </c>
       <c r="I3">
         <f>droot</f>
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
         <f>L</f>
@@ -16281,7 +15309,7 @@
       </c>
       <c r="K3">
         <f>Water!E12</f>
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -16391,7 +15419,7 @@
         <v>2.5</v>
       </c>
       <c r="I9" s="3">
-        <v>0.26200000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="3">
         <v>5.7570449680998975E-2</v>
@@ -16429,13 +15457,13 @@
         <v>2.5</v>
       </c>
       <c r="I10" s="3">
-        <v>0.27400000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="J10" s="3">
         <v>7.8340960331012011E-2</v>
       </c>
       <c r="K10">
-        <v>0.26349999999999996</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -16467,13 +15495,13 @@
         <v>2.5</v>
       </c>
       <c r="I11" s="3">
-        <v>0.28600000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="J11" s="3">
         <v>0.10345637391501859</v>
       </c>
       <c r="K11">
-        <v>0.26349999999999996</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -16505,7 +15533,7 @@
         <v>2.5</v>
       </c>
       <c r="I12" s="3">
-        <v>0.29800000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="J12" s="3">
         <v>0.13811055579371173</v>
@@ -16543,13 +15571,13 @@
         <v>2.5</v>
       </c>
       <c r="I13" s="3">
-        <v>0.31000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="J13" s="3">
         <v>0.18074234771618758</v>
       </c>
       <c r="K13">
-        <v>0.26349999999999996</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -16581,7 +15609,7 @@
         <v>2.5</v>
       </c>
       <c r="I14" s="3">
-        <v>0.32200000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="J14" s="3">
         <v>0.22738243734507194</v>
@@ -16619,7 +15647,7 @@
         <v>2.5</v>
       </c>
       <c r="I15" s="3">
-        <v>0.33400000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="3">
         <v>0.28629683675788065</v>
@@ -16657,13 +15685,13 @@
         <v>2.5</v>
       </c>
       <c r="I16" s="3">
-        <v>0.34600000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="J16" s="3">
         <v>0.37192085027416483</v>
       </c>
       <c r="K16">
-        <v>0.26349999999999996</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -16695,7 +15723,7 @@
         <v>2.5</v>
       </c>
       <c r="I17" s="3">
-        <v>0.3580000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="J17" s="3">
         <v>0.47427409379395929</v>
@@ -16736,7 +15764,7 @@
         <v>2.5</v>
       </c>
       <c r="I18" s="57">
-        <v>0.37000000000000011</v>
+        <v>0.25</v>
       </c>
       <c r="J18" s="57">
         <v>0.60110377626920075</v>
@@ -16780,13 +15808,13 @@
         <v>2.5</v>
       </c>
       <c r="I19" s="3">
-        <v>0.38200000000000012</v>
+        <v>0.25</v>
       </c>
       <c r="J19" s="3">
         <v>0.66899490913535908</v>
       </c>
       <c r="K19">
-        <v>0.26349999999999996</v>
+        <v>0.26350000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -16821,7 +15849,7 @@
         <v>2.5</v>
       </c>
       <c r="I20" s="3">
-        <v>0.39400000000000013</v>
+        <v>0.25</v>
       </c>
       <c r="J20" s="3">
         <v>0.81112376366227135</v>
@@ -16862,7 +15890,7 @@
         <v>2.5</v>
       </c>
       <c r="I21" s="3">
-        <v>0.40600000000000014</v>
+        <v>0.25</v>
       </c>
       <c r="J21" s="3">
         <v>1.0013536961377982</v>
@@ -16897,13 +15925,13 @@
         <v>2.5</v>
       </c>
       <c r="I22" s="3">
-        <v>0.41800000000000015</v>
+        <v>0.25</v>
       </c>
       <c r="J22" s="3">
         <v>1.107623974921303</v>
       </c>
       <c r="K22">
-        <v>0.26349999999999996</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -16932,7 +15960,7 @@
         <v>2.5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.43000000000000016</v>
+        <v>0.25</v>
       </c>
       <c r="J23" s="3">
         <v>1.2229462920504068</v>
@@ -16967,7 +15995,7 @@
         <v>2.5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.44200000000000017</v>
+        <v>0.25</v>
       </c>
       <c r="J24" s="3">
         <v>1.4275476922683545</v>
@@ -17002,7 +16030,7 @@
         <v>2.5</v>
       </c>
       <c r="I25" s="3">
-        <v>0.45400000000000018</v>
+        <v>0.25</v>
       </c>
       <c r="J25" s="3">
         <v>1.6595038676969267</v>
@@ -17037,7 +16065,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="3">
-        <v>0.46600000000000019</v>
+        <v>0.25</v>
       </c>
       <c r="J26" s="3">
         <v>1.9007082524443915</v>
@@ -17072,7 +16100,7 @@
         <v>2.5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.4780000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="J27" s="3">
         <v>2.1486927395186739</v>
@@ -17107,7 +16135,7 @@
         <v>2.5</v>
       </c>
       <c r="I28" s="3">
-        <v>0.49000000000000021</v>
+        <v>0.25</v>
       </c>
       <c r="J28" s="3">
         <v>2.4075695218149877</v>
@@ -17142,7 +16170,7 @@
         <v>2.5</v>
       </c>
       <c r="I29" s="3">
-        <v>0.50200000000000022</v>
+        <v>0.25</v>
       </c>
       <c r="J29" s="3">
         <v>2.6641642242018477</v>
@@ -17177,13 +16205,13 @@
         <v>2.5</v>
       </c>
       <c r="I30" s="3">
-        <v>0.51400000000000023</v>
+        <v>0.25</v>
       </c>
       <c r="J30" s="3">
         <v>2.872001993751184</v>
       </c>
       <c r="K30">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -17212,7 +16240,7 @@
         <v>2.5</v>
       </c>
       <c r="I31" s="3">
-        <v>0.52600000000000025</v>
+        <v>0.25</v>
       </c>
       <c r="J31" s="3">
         <v>3.0290764835307247</v>
@@ -17247,7 +16275,7 @@
         <v>2.5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.53800000000000026</v>
+        <v>0.25</v>
       </c>
       <c r="J32" s="3">
         <v>3.2030174005020386</v>
@@ -17282,7 +16310,7 @@
         <v>2.5</v>
       </c>
       <c r="I33">
-        <v>0.55000000000000027</v>
+        <v>0.25</v>
       </c>
       <c r="J33">
         <v>3.3643459138222611</v>
@@ -17317,7 +16345,7 @@
         <v>2.5</v>
       </c>
       <c r="I34">
-        <v>0.56200000000000028</v>
+        <v>0.25</v>
       </c>
       <c r="J34">
         <v>3.6016688282823592</v>
@@ -17352,7 +16380,7 @@
         <v>2.5</v>
       </c>
       <c r="I35">
-        <v>0.57400000000000029</v>
+        <v>0.25</v>
       </c>
       <c r="J35">
         <v>3.7885277359743355</v>
@@ -17387,13 +16415,13 @@
         <v>2.5</v>
       </c>
       <c r="I36">
-        <v>0.5860000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="J36">
         <v>3.9918069448361804</v>
       </c>
       <c r="K36">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -17422,7 +16450,7 @@
         <v>2.5</v>
       </c>
       <c r="I37">
-        <v>0.59800000000000031</v>
+        <v>0.25</v>
       </c>
       <c r="J37">
         <v>4.1353080039708177</v>
@@ -17457,13 +16485,13 @@
         <v>2.5</v>
       </c>
       <c r="I38">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J38">
         <v>4.1353080039708177</v>
       </c>
       <c r="K38">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -17492,13 +16520,13 @@
         <v>2.5</v>
       </c>
       <c r="I39">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J39">
         <v>4.1353080039708177</v>
       </c>
       <c r="K39">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -17527,13 +16555,13 @@
         <v>2.5</v>
       </c>
       <c r="I40">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J40">
         <v>4.1353080039708177</v>
       </c>
       <c r="K40">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -17562,13 +16590,13 @@
         <v>2.5</v>
       </c>
       <c r="I41">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J41">
         <v>4.1353080039708177</v>
       </c>
       <c r="K41">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -17597,13 +16625,13 @@
         <v>2.5</v>
       </c>
       <c r="I42">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J42">
         <v>4.1353080039708177</v>
       </c>
       <c r="K42">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -17632,13 +16660,13 @@
         <v>2.5</v>
       </c>
       <c r="I43">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J43">
         <v>4.1353080039708177</v>
       </c>
       <c r="K43">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -17667,13 +16695,13 @@
         <v>2.5</v>
       </c>
       <c r="I44">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J44">
         <v>4.1353080039708177</v>
       </c>
       <c r="K44">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -17702,13 +16730,13 @@
         <v>2.5</v>
       </c>
       <c r="I45">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J45">
         <v>4.1353080039708177</v>
       </c>
       <c r="K45">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -17737,13 +16765,13 @@
         <v>2.5</v>
       </c>
       <c r="I46">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J46">
         <v>4.1353080039708177</v>
       </c>
       <c r="K46">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -17772,13 +16800,13 @@
         <v>2.5</v>
       </c>
       <c r="I47">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J47">
         <v>4.1353080039708177</v>
       </c>
       <c r="K47">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -17807,13 +16835,13 @@
         <v>2.5</v>
       </c>
       <c r="I48">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J48">
         <v>4.1353080039708177</v>
       </c>
       <c r="K48">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -17842,13 +16870,13 @@
         <v>2.5</v>
       </c>
       <c r="I49">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J49">
         <v>4.1353080039708177</v>
       </c>
       <c r="K49">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -17877,13 +16905,13 @@
         <v>2.5</v>
       </c>
       <c r="I50">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J50">
         <v>4.1353080039708177</v>
       </c>
       <c r="K50">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -17912,18 +16940,18 @@
         <v>2.5</v>
       </c>
       <c r="I51">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J51">
         <v>4.1353080039708177</v>
       </c>
       <c r="K51">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>0.66825999999999963</v>
@@ -17947,13 +16975,13 @@
         <v>2.5</v>
       </c>
       <c r="I52">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J52">
         <v>4.1353080039708177</v>
       </c>
       <c r="K52">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -17982,13 +17010,13 @@
         <v>2.5</v>
       </c>
       <c r="I53">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J53">
         <v>4.1353080039708177</v>
       </c>
       <c r="K53">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -18017,13 +17045,13 @@
         <v>2.5</v>
       </c>
       <c r="I54">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J54">
         <v>4.1353080039708177</v>
       </c>
       <c r="K54">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -18052,13 +17080,13 @@
         <v>2.5</v>
       </c>
       <c r="I55">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J55">
         <v>4.1353080039708177</v>
       </c>
       <c r="K55">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -18087,13 +17115,13 @@
         <v>2.5</v>
       </c>
       <c r="I56">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J56">
         <v>4.1353080039708177</v>
       </c>
       <c r="K56">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -18122,13 +17150,13 @@
         <v>2.5</v>
       </c>
       <c r="I57">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J57">
         <v>4.1353080039708177</v>
       </c>
       <c r="K57">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -18157,18 +17185,18 @@
         <v>2.5</v>
       </c>
       <c r="I58">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J58">
         <v>4.1353080039708177</v>
       </c>
       <c r="K58">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>0.66825999999999963</v>
@@ -18192,18 +17220,18 @@
         <v>2.5</v>
       </c>
       <c r="I59">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J59">
         <v>4.1353080039708177</v>
       </c>
       <c r="K59">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60">
         <v>0.66825999999999963</v>
@@ -18227,18 +17255,18 @@
         <v>2.5</v>
       </c>
       <c r="I60">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J60">
         <v>4.1353080039708177</v>
       </c>
       <c r="K60">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61">
         <v>0.66825999999999963</v>
@@ -18262,13 +17290,13 @@
         <v>2.5</v>
       </c>
       <c r="I61">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J61">
         <v>4.1353080039708177</v>
       </c>
       <c r="K61">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -18297,13 +17325,13 @@
         <v>2.5</v>
       </c>
       <c r="I62">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J62">
         <v>4.1353080039708177</v>
       </c>
       <c r="K62">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -18332,13 +17360,13 @@
         <v>2.5</v>
       </c>
       <c r="I63">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J63">
         <v>4.1353080039708177</v>
       </c>
       <c r="K63">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -18367,13 +17395,13 @@
         <v>2.5</v>
       </c>
       <c r="I64">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J64">
         <v>4.1353080039708177</v>
       </c>
       <c r="K64">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -18402,13 +17430,13 @@
         <v>2.5</v>
       </c>
       <c r="I65">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J65">
         <v>4.1353080039708177</v>
       </c>
       <c r="K65">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -18437,13 +17465,13 @@
         <v>2.5</v>
       </c>
       <c r="I66">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J66">
         <v>4.1353080039708177</v>
       </c>
       <c r="K66">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -18472,18 +17500,18 @@
         <v>2.5</v>
       </c>
       <c r="I67">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J67">
         <v>4.1353080039708177</v>
       </c>
       <c r="K67">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B68">
         <v>0.66825999999999963</v>
@@ -18507,643 +17535,13 @@
         <v>2.5</v>
       </c>
       <c r="I68">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J68">
         <v>4.1353080039708177</v>
       </c>
       <c r="K68">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-      <c r="B69">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C69">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D69">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E69">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F69">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>2.5</v>
-      </c>
-      <c r="I69">
-        <v>0.6</v>
-      </c>
-      <c r="J69">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K69">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-      <c r="B70">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C70">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D70">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E70">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F70">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>2.5</v>
-      </c>
-      <c r="I70">
-        <v>0.6</v>
-      </c>
-      <c r="J70">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K70">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-      <c r="B71">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C71">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D71">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E71">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F71">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>2.5</v>
-      </c>
-      <c r="I71">
-        <v>0.6</v>
-      </c>
-      <c r="J71">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K71">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-      <c r="B72">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C72">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D72">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E72">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F72">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>2.5</v>
-      </c>
-      <c r="I72">
-        <v>0.6</v>
-      </c>
-      <c r="J72">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K72">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-      <c r="B73">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C73">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D73">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E73">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F73">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>2.5</v>
-      </c>
-      <c r="I73">
-        <v>0.6</v>
-      </c>
-      <c r="J73">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K73">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-      <c r="B74">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C74">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D74">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E74">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F74">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>2.5</v>
-      </c>
-      <c r="I74">
-        <v>0.6</v>
-      </c>
-      <c r="J74">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K74">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>69</v>
-      </c>
-      <c r="B75">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C75">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D75">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E75">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F75">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>2.5</v>
-      </c>
-      <c r="I75">
-        <v>0.6</v>
-      </c>
-      <c r="J75">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K75">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>70</v>
-      </c>
-      <c r="B76">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C76">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D76">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E76">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F76">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>2.5</v>
-      </c>
-      <c r="I76">
-        <v>0.6</v>
-      </c>
-      <c r="J76">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K76">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>71</v>
-      </c>
-      <c r="B77">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C77">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D77">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E77">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F77">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>2.5</v>
-      </c>
-      <c r="I77">
-        <v>0.6</v>
-      </c>
-      <c r="J77">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K77">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-      <c r="B78">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C78">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D78">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E78">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F78">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>2.5</v>
-      </c>
-      <c r="I78">
-        <v>0.6</v>
-      </c>
-      <c r="J78">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K78">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-      <c r="B79">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C79">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D79">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E79">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F79">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>2.5</v>
-      </c>
-      <c r="I79">
-        <v>0.6</v>
-      </c>
-      <c r="J79">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K79">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>74</v>
-      </c>
-      <c r="B80">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C80">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D80">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E80">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F80">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>2.5</v>
-      </c>
-      <c r="I80">
-        <v>0.6</v>
-      </c>
-      <c r="J80">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K80">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-      <c r="B81">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C81">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D81">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E81">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F81">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>2.5</v>
-      </c>
-      <c r="I81">
-        <v>0.6</v>
-      </c>
-      <c r="J81">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K81">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>76</v>
-      </c>
-      <c r="B82">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C82">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D82">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E82">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F82">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>2.5</v>
-      </c>
-      <c r="I82">
-        <v>0.6</v>
-      </c>
-      <c r="J82">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K82">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-      <c r="B83">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C83">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D83">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E83">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F83">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>2.5</v>
-      </c>
-      <c r="I83">
-        <v>0.6</v>
-      </c>
-      <c r="J83">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K83">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-      <c r="B84">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C84">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D84">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E84">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F84">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>2.5</v>
-      </c>
-      <c r="I84">
-        <v>0.6</v>
-      </c>
-      <c r="J84">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K84">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>79</v>
-      </c>
-      <c r="B85">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C85">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D85">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E85">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F85">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>2.5</v>
-      </c>
-      <c r="I85">
-        <v>0.6</v>
-      </c>
-      <c r="J85">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K85">
-        <v>0.26350000000000007</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>78</v>
-      </c>
-      <c r="B86">
-        <v>0.66825999999999963</v>
-      </c>
-      <c r="C86">
-        <v>153.29525038722485</v>
-      </c>
-      <c r="D86">
-        <v>4.0262089379978923</v>
-      </c>
-      <c r="E86">
-        <v>77.058886205949605</v>
-      </c>
-      <c r="F86">
-        <v>13.642840667163533</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>2.5</v>
-      </c>
-      <c r="I86">
-        <v>0.6</v>
-      </c>
-      <c r="J86">
-        <v>4.1353080039708177</v>
-      </c>
-      <c r="K86">
-        <v>0.26350000000000007</v>
+        <v>0.26350000000000001</v>
       </c>
     </row>
   </sheetData>
